--- a/Python/02 On Computer/02 Dynamic/recordings/data.xlsx
+++ b/Python/02 On Computer/02 Dynamic/recordings/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,49 +515,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4749846458435059</v>
+        <v>0.6037693023681641</v>
       </c>
       <c r="C2" t="n">
-        <v>115.16</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>104.16</v>
+        <v>234.72</v>
       </c>
       <c r="E2" t="n">
-        <v>218.9041384554042</v>
+        <v>318.3743034913205</v>
       </c>
       <c r="F2" t="n">
-        <v>199.9492471999412</v>
+        <v>199.9180040050193</v>
       </c>
       <c r="G2" t="n">
-        <v>91.42441819055668</v>
+        <v>91.81020762530125</v>
       </c>
       <c r="H2" t="n">
-        <v>-84.78924719994123</v>
+        <v>-199.9180040050193</v>
       </c>
       <c r="I2" t="n">
-        <v>12.73558180944332</v>
+        <v>142.9097923746988</v>
       </c>
       <c r="J2" t="n">
-        <v>3.820597962288338</v>
+        <v>5.55667984966722</v>
       </c>
       <c r="K2" t="n">
-        <v>1.641977190938728</v>
+        <v>1.661224636336254</v>
       </c>
       <c r="L2" t="n">
-        <v>2.17862077134961</v>
+        <v>3.895455213330966</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2211064707241418</v>
+        <v>-2.119944669221788</v>
       </c>
       <c r="N2" t="n">
-        <v>0.360395683386905</v>
+        <v>-0.0521770010457201</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0177601394140388</v>
+        <v>-0.0225351422613522</v>
       </c>
       <c r="P2" t="n">
-        <v>0.449367284690703</v>
+        <v>0.4489794660197984</v>
       </c>
     </row>
     <row r="3">
@@ -565,49 +565,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5892014503479004</v>
+        <v>0.7146341800689697</v>
       </c>
       <c r="C3" t="n">
-        <v>115.16</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>104.16</v>
+        <v>234.72</v>
       </c>
       <c r="E3" t="n">
-        <v>218.9041384554042</v>
+        <v>318.3743034913205</v>
       </c>
       <c r="F3" t="n">
-        <v>199.9219119661369</v>
+        <v>199.8851409422302</v>
       </c>
       <c r="G3" t="n">
-        <v>91.7665817975399</v>
+        <v>92.14207818055569</v>
       </c>
       <c r="H3" t="n">
-        <v>-84.76191196613686</v>
+        <v>-199.8851409422302</v>
       </c>
       <c r="I3" t="n">
-        <v>12.3934182024601</v>
+        <v>142.5779218194443</v>
       </c>
       <c r="J3" t="n">
-        <v>3.820597962288338</v>
+        <v>5.55667984966722</v>
       </c>
       <c r="K3" t="n">
-        <v>1.659049122987096</v>
+        <v>1.677764451106709</v>
       </c>
       <c r="L3" t="n">
-        <v>2.161548839301242</v>
+        <v>3.878915398560511</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2211064707241418</v>
+        <v>-2.119944669221788</v>
       </c>
       <c r="N3" t="n">
-        <v>0.360395683386905</v>
+        <v>-0.0521770010457201</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.02199633376091942</v>
+        <v>-0.02662293549745795</v>
       </c>
       <c r="P3" t="n">
-        <v>0.449027905474875</v>
+        <v>0.448572911508315</v>
       </c>
     </row>
     <row r="4">
@@ -615,49 +615,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6962051391601562</v>
+        <v>0.8372056484222412</v>
       </c>
       <c r="C4" t="n">
-        <v>115.16</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>104.16</v>
+        <v>234.72</v>
       </c>
       <c r="E4" t="n">
-        <v>218.9041384554042</v>
+        <v>318.3743034913205</v>
       </c>
       <c r="F4" t="n">
-        <v>199.890986184262</v>
+        <v>199.8423866013844</v>
       </c>
       <c r="G4" t="n">
-        <v>92.08692856763203</v>
+        <v>92.50868393049032</v>
       </c>
       <c r="H4" t="n">
-        <v>-84.73098618426201</v>
+        <v>-199.8423866013844</v>
       </c>
       <c r="I4" t="n">
-        <v>12.07307143236797</v>
+        <v>142.2113160695097</v>
       </c>
       <c r="J4" t="n">
-        <v>3.820597962288338</v>
+        <v>5.55667984966722</v>
       </c>
       <c r="K4" t="n">
-        <v>1.675017156335796</v>
+        <v>1.696012842119496</v>
       </c>
       <c r="L4" t="n">
-        <v>2.145580805952542</v>
+        <v>3.860667007547724</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2211064707241418</v>
+        <v>-2.119944669221788</v>
       </c>
       <c r="N4" t="n">
-        <v>0.360395683386905</v>
+        <v>-0.0521770010457201</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.0259450591698996</v>
+        <v>-0.03111303207394391</v>
       </c>
       <c r="P4" t="n">
-        <v>0.448645121503478</v>
+        <v>0.448046082844475</v>
       </c>
     </row>
     <row r="5">
@@ -665,49 +665,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7961065769195557</v>
+        <v>0.9719874858856201</v>
       </c>
       <c r="C5" t="n">
-        <v>115.16</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.16</v>
+        <v>234.72</v>
       </c>
       <c r="E5" t="n">
-        <v>218.9041384554042</v>
+        <v>318.3743034913205</v>
       </c>
       <c r="F5" t="n">
-        <v>199.8574735214866</v>
+        <v>199.7875963779756</v>
       </c>
       <c r="G5" t="n">
-        <v>92.38579772534855</v>
+        <v>92.911373153193</v>
       </c>
       <c r="H5" t="n">
-        <v>-84.69747352148661</v>
+        <v>-199.7875963779756</v>
       </c>
       <c r="I5" t="n">
-        <v>11.77420227465144</v>
+        <v>141.808626846807</v>
       </c>
       <c r="J5" t="n">
-        <v>3.820597962288338</v>
+        <v>5.55667984966722</v>
       </c>
       <c r="K5" t="n">
-        <v>1.689898848306202</v>
+        <v>1.716025613774184</v>
       </c>
       <c r="L5" t="n">
-        <v>2.130699113982136</v>
+        <v>3.840654235893036</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2211064707241418</v>
+        <v>-2.119944669221788</v>
       </c>
       <c r="N5" t="n">
-        <v>0.360395683386905</v>
+        <v>-0.0521770010457201</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.02961119948993225</v>
+        <v>-0.03600905498859389</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4482317179947026</v>
+        <v>0.4473743804177736</v>
       </c>
     </row>
     <row r="6">
@@ -715,49 +715,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9133977890014648</v>
+        <v>1.073943853378296</v>
       </c>
       <c r="C6" t="n">
-        <v>114.91</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>104.65</v>
+        <v>234.72</v>
       </c>
       <c r="E6" t="n">
-        <v>221.1120904391669</v>
+        <v>318.3743034913205</v>
       </c>
       <c r="F6" t="n">
-        <v>199.8124139806872</v>
+        <v>199.7407443569609</v>
       </c>
       <c r="G6" t="n">
-        <v>92.73638473769172</v>
+        <v>93.21564193591749</v>
       </c>
       <c r="H6" t="n">
-        <v>-84.90241398068719</v>
+        <v>-199.7407443569609</v>
       </c>
       <c r="I6" t="n">
-        <v>11.91361526230828</v>
+        <v>141.5043580640825</v>
       </c>
       <c r="J6" t="n">
-        <v>3.859133994130937</v>
+        <v>5.55667984966722</v>
       </c>
       <c r="K6" t="n">
-        <v>1.707333458397844</v>
+        <v>1.731122131492142</v>
       </c>
       <c r="L6" t="n">
-        <v>2.151800535733093</v>
+        <v>3.825557718175078</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2057191780821918</v>
+        <v>-2.119944669221788</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3739821917808219</v>
+        <v>-0.0521770010457201</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.03388647455793832</v>
+        <v>-0.03968002963893804</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4476781563388482</v>
+        <v>0.4468030339146649</v>
       </c>
     </row>
     <row r="7">
@@ -765,49 +765,149 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.038552284240723</v>
+        <v>1.185709476470947</v>
       </c>
       <c r="C7" t="n">
-        <v>115.16</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>104.16</v>
+        <v>234.72</v>
       </c>
       <c r="E7" t="n">
-        <v>219.4006606634794</v>
+        <v>318.3743034913205</v>
       </c>
       <c r="F7" t="n">
-        <v>199.7575351106584</v>
+        <v>199.6840413674778</v>
       </c>
       <c r="G7" t="n">
-        <v>93.11005900752733</v>
+        <v>93.54879930051649</v>
       </c>
       <c r="H7" t="n">
-        <v>-84.59753511065841</v>
+        <v>-199.6840413674778</v>
       </c>
       <c r="I7" t="n">
-        <v>11.04994099247267</v>
+        <v>141.1712006994835</v>
       </c>
       <c r="J7" t="n">
-        <v>3.829263909628522</v>
+        <v>5.55667984966722</v>
       </c>
       <c r="K7" t="n">
-        <v>1.725886150958577</v>
+        <v>1.747624578591491</v>
       </c>
       <c r="L7" t="n">
-        <v>2.103377758669945</v>
+        <v>3.809055271075729</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2179750374550754</v>
+        <v>-2.119944669221788</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3622982239074027</v>
+        <v>-0.0521770010457201</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.03840913776305042</v>
+        <v>-0.04366826727453802</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4470074717021085</v>
+        <v>0.4461152713972267</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.292940616607666</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>234.72</v>
+      </c>
+      <c r="E8" t="n">
+        <v>318.3743034913205</v>
+      </c>
+      <c r="F8" t="n">
+        <v>199.6243922155987</v>
+      </c>
+      <c r="G8" t="n">
+        <v>93.86802386459462</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-199.6243922155987</v>
+      </c>
+      <c r="I8" t="n">
+        <v>140.8519761354054</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.55667984966722</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.763407608823766</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.793272240843454</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2.119944669221788</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.0521770010457201</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.04745619123672987</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.445396125753434</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.4443199634552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>234.72</v>
+      </c>
+      <c r="E9" t="n">
+        <v>318.3743034913205</v>
+      </c>
+      <c r="F9" t="n">
+        <v>199.5314518313694</v>
+      </c>
+      <c r="G9" t="n">
+        <v>94.31791090384263</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-199.5314518313694</v>
+      </c>
+      <c r="I9" t="n">
+        <v>140.4020890961574</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.55667984966722</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.785597716970686</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.771082132696534</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-2.119944669221788</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.0521770010457201</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.05273349880658379</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4442844064131957</v>
       </c>
     </row>
   </sheetData>
